--- a/2023九月绩效.xlsx
+++ b/2023九月绩效.xlsx
@@ -1148,7 +1148,7 @@
   <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3:N39"/>
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
